--- a/DAY1Automation/discount.xlsx
+++ b/DAY1Automation/discount.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_learn\quest_python\DAY1- Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_learn\quest_python\DAY1Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C6694-6E85-425B-8A2E-48F194972105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10A4436-BA0F-46B0-9959-ECB5736F2B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72DD5BFA-6E6C-4FCF-BA6A-6CE8CC3F6873}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Use case</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Localite Female working  &lt; 45</t>
-  </si>
-  <si>
-    <t>Localite Female student  &lt; 45</t>
   </si>
   <si>
     <t>Localite  Female working &gt;= 45</t>
@@ -137,11 +134,6 @@
   <si>
     <t>100/- Discount on Nykaa &amp; fastrack
 250/- on Groceries</t>
-  </si>
-  <si>
-    <t>100/- Discount on Nykaa &amp; fastrack
-250/- on Groceries
-100 coupons on books</t>
   </si>
   <si>
     <t>15% Senior citizen discount applied
@@ -173,13 +165,18 @@
   </si>
   <si>
     <t>discount.py</t>
+  </si>
+  <si>
+    <t>100/- Discount on Nykaa &amp; fastrack
+100 coupons on books
+250/- on Groceries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,18 +191,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFA31515"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,35 +240,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,38 +579,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F184C0F5-FEB5-44E9-A8B3-BD0B024F733A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="9" width="21.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H1" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -629,13 +643,13 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="b">
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -659,13 +673,13 @@
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="4" t="b">
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -689,13 +703,13 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="4" t="b">
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -712,16 +726,16 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="4" t="b">
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -735,13 +749,13 @@
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4" t="b">
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -752,16 +766,16 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="10" t="b">
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -772,16 +786,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="10" t="b">
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -792,16 +806,16 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="10" t="b">
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -812,16 +826,16 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="10" t="b">
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -832,16 +846,16 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="4" t="b">
+      <c r="G13" s="1">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -853,15 +867,15 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="4" t="b">
+        <v>31</v>
+      </c>
+      <c r="J14" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -873,15 +887,15 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="4" t="b">
+        <v>31</v>
+      </c>
+      <c r="J15" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -893,15 +907,15 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="4" t="b">
+        <v>32</v>
+      </c>
+      <c r="J16" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -913,15 +927,15 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="4" t="b">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -933,15 +947,15 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="4" t="b">
+        <v>31</v>
+      </c>
+      <c r="J18" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -953,28 +967,31 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="4" t="b">
+        <v>31</v>
+      </c>
+      <c r="J19" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H27">
+      <c r="H27" s="7">
         <f>3*4*6</f>
         <v>72</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
